--- a/inst/dados_premissas/2023/tabela_dist_subs.xlsx
+++ b/inst/dados_premissas/2023/tabela_dist_subs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67C3C88-A8C5-4918-B6CB-344C3F2B454D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D23F1C-3893-4B17-895B-13683EFCEB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>AME</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>EQUATORIAL GO</t>
+  </si>
+  <si>
+    <t>PACTO</t>
   </si>
 </sst>
 </file>
@@ -624,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -1405,6 +1408,20 @@
         <v>85</v>
       </c>
     </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/inst/dados_premissas/2023/tabela_dist_subs.xlsx
+++ b/inst/dados_premissas/2023/tabela_dist_subs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D23F1C-3893-4B17-895B-13683EFCEB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349F319D-0390-4537-81F7-826FC7657F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="93">
   <si>
     <t>AME</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>PACTO</t>
+  </si>
+  <si>
+    <t>EMR</t>
   </si>
 </sst>
 </file>
@@ -627,15 +630,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1422,6 +1425,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
